--- a/src/main/resources/static/模版.xlsx
+++ b/src/main/resources/static/模版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\zzw\zzw-gx1\zzw-gx\xlxs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\zzw\zzw-gx1\zzw-gx\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADE269D-D669-427C-B7D3-D1705D96375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEAD138-008B-4E1B-8AD0-6C51897F36AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4BD0DB2E-5322-419C-8297-770D2E6B92E1}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4BD0DB2E-5322-419C-8297-770D2E6B92E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>施工循环总体进度概览</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环工序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个循环合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前作业内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际耗时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“-”为超前“+”为节（分钟）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理措施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林坪隧道出口循环时间通报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本循环结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进尺（m）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应超时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测下循环控制时间（按间隔计算）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>围岩等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月循环数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开挖方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/12 2:48:00	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -43,7 +135,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>上循环实际时间</t>
+      <t>上循环响炮时间</t>
     </r>
     <r>
       <rPr>
@@ -57,111 +149,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>本循环实际开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工循环总体进度概览</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环工序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个循环合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前作业内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际耗时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制标准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“-”为超前“+”为节（分钟）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进展状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理措施</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>情况说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林坪隧道出口循环时间通报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本循环结束日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进尺（m）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应超时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测下循环实际时间（按控制标准）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测下循环控制时间（按间隔计算）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>围岩等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本循环理论循环时间（按控制标准）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两循环间隔时间差（倒排）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月循环数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开挖方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/11/12 2:48:00	</t>
+    <t>本循环实际响炮时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本循环理论响炮时间（按控制标准）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测下循环响炮时间（按控制标准）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两循环响炮时间差（间隔）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,6 +380,27 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,9 +422,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,24 +429,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670AE495-B476-4387-8485-E39ED1CBD71D}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,189 +769,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="18"/>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="11"/>
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="18" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="12" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1051,14 +1051,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -1071,11 +1063,19 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A6:P6"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:P6"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:P5"/>

--- a/src/main/resources/static/模版.xlsx
+++ b/src/main/resources/static/模版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\zzw\zzw-gx1\zzw-gx\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEAD138-008B-4E1B-8AD0-6C51897F36AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29431611-AEFD-4D25-A374-DFF8127D4A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4BD0DB2E-5322-419C-8297-770D2E6B92E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4BD0DB2E-5322-419C-8297-770D2E6B92E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>“-”为超前“+”为节（分钟）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>进展状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
   </si>
   <si>
     <t>响应超时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测下循环控制时间（按间隔计算）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -162,6 +154,14 @@
   </si>
   <si>
     <t>两循环响炮时间差（间隔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测下循环响炮时间（按间隔计算）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“-”为超时/“+”为节余（分钟）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -386,33 +386,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -422,13 +395,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670AE495-B476-4387-8485-E39ED1CBD71D}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:P4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -762,31 +762,31 @@
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
     <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="21.875" customWidth="1"/>
     <col min="14" max="14" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="A1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -795,10 +795,10 @@
       <c r="B2" s="11"/>
       <c r="C2" s="4"/>
       <c r="D2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -808,11 +808,11 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
       <c r="M2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -821,96 +821,96 @@
       <c r="B3" s="11"/>
       <c r="C3" s="6"/>
       <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="3"/>
       <c r="D4" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="7"/>
       <c r="D5" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -936,22 +936,22 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/static/模版.xlsx
+++ b/src/main/resources/static/模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\zzw\zzw-gx1\zzw-gx\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29431611-AEFD-4D25-A374-DFF8127D4A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77473028-4E06-4B86-96FF-D785997C47E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4BD0DB2E-5322-419C-8297-770D2E6B92E1}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掌子面里程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>施工循环总体进度概览</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,15 +95,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>响应超时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>围岩等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月循环数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>“-”为超时/“+”为节余（分钟）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估里程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>响炮超时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本循环数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +380,34 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -395,40 +422,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670AE495-B476-4387-8485-E39ED1CBD71D}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,189 +769,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-    </row>
-    <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13"/>
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-    </row>
-    <row r="3" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="12" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1051,6 +1051,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -1067,20 +1081,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
